--- a/results/MLP_parallel/s_MLP_parallel_t_simglucose_data_insilico_seed_25_2025-02-08_PH_45/output.xlsx
+++ b/results/MLP_parallel/s_MLP_parallel_t_simglucose_data_insilico_seed_25_2025-02-08_PH_45/output.xlsx
@@ -483,12 +483,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.036949657</t>
+          <t>0.057947338</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.12400255</t>
+          <t>0.12490211</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -515,12 +515,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.028496414</t>
+          <t>0.04426039</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.11703708</t>
+          <t>0.13343696</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -547,12 +547,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.106392175</t>
+          <t>0.10513334</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.26004818</t>
+          <t>0.26206714</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -579,12 +579,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.077863835</t>
+          <t>0.07529135</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.2144696</t>
+          <t>0.21334727</t>
         </is>
       </c>
       <c r="D5" t="n">
